--- a/site_info.xlsx
+++ b/site_info.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tvaughan\Dropbox\WIP\Risk Prediction\GIT\RiskEA working\IC-RISC-Working\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="0" windowWidth="21540" windowHeight="16095" xr2:uid="{AD44C071-AD3B-4FEA-B02D-FBF2F7A34D50}"/>
+    <workbookView xWindow="11370" yWindow="0" windowWidth="21540" windowHeight="16095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,10 +477,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8DECBD2-FA80-4CE7-8376-0C474799C7BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -654,7 +656,7 @@
       <c r="A16">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
       <c r="C16" t="s">
